--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC04150B-717F-48B6-B91B-881F357A4713}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431AFF5F-135F-4BF7-8AC6-518F5C20B178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2004" yWindow="864" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -72,7 +72,10 @@
     <t>AR1_state_based_logistic(50)</t>
   </si>
   <si>
-    <t>VAR(1) unfixed</t>
+    <t xml:space="preserve">VAR(1) </t>
+  </si>
+  <si>
+    <t>AR1_state_based_logistic(100)</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,12 +781,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D33">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -796,13 +799,37 @@
       <c r="D34">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="1">
+        <v>0.393717725354713</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.90163636363636401</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.90797217763509896</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.175654432369626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="1">
+        <v>0.56229618974507101</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.89078787878787902</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.91827148896195399</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.17869320158652799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>1000</v>
       </c>
@@ -810,12 +837,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>36</v>
       </c>
@@ -825,13 +852,37 @@
       <c r="D38">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" s="1">
+        <v>0.40183149040475402</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.92129629629629595</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.86956521739130399</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.169595422966898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" s="1">
+        <v>0.47228000312951601</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.91351851851851895</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.88129496402877705</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.171345995045417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>1000</v>
       </c>
@@ -839,12 +890,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41">
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -857,13 +908,37 @@
       <c r="D42">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="1">
+        <v>0.56353656498932803</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.89715151515151503</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.82110494007600099</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.16285648749904399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="1">
+        <v>0.67999890604786695</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.88890909090909098</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.166042446941323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>1000</v>
       </c>
@@ -871,12 +946,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>36</v>
       </c>
@@ -886,13 +961,37 @@
       <c r="D46">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="1">
+        <v>0.57106853864014995</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.91259259259259295</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.82374429223744305</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.16329849012775799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="1">
+        <v>0.62555458163739297</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.90462962962963001</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.82965578111209204</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.164752753691118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>1000</v>
       </c>
@@ -900,12 +999,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -918,13 +1017,37 @@
       <c r="D50">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" s="1">
+        <v>0.61627218225883296</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.87630303030303003</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.81575178997613396</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.16003249390739199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" s="1">
+        <v>0.71867641076821198</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.87018181818181795</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.82571492907002897</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.16319761174226699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>1000</v>
       </c>
@@ -932,12 +1055,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>36</v>
       </c>
@@ -947,13 +1070,37 @@
       <c r="D54">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" s="1">
+        <v>0.67373001489481599</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.89462962962963</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.82469135802469096</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.16320191158900799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55" s="1">
+        <v>0.71877454580455102</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.88703703703703696</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.82932692307692302</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.164499036608863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1000</v>
       </c>
@@ -961,12 +1108,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -979,13 +1126,37 @@
       <c r="D58">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58" s="1">
+        <v>0.70476640085883901</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.81472727272727297</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.82672371235807096</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.162045476350379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="1">
+        <v>0.78093910366097596</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.80963636363636404</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.83088470137336301</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.164387575698379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>1000</v>
       </c>
@@ -993,12 +1164,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>36</v>
       </c>
@@ -1008,13 +1179,37 @@
       <c r="D62">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62" s="1">
+        <v>0.74540982840807302</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.85018518518518504</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.85427423981640804</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.17555373256767801</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63" s="1">
+        <v>0.76917716949397297</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.84277777777777796</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.855850763143019</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.176535389699807</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>1000</v>
       </c>
@@ -1022,8 +1217,117 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <v>0.01</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.75723426622568402</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.82993197278911601</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.162448009506833</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.81938169507830805</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.70581818181818201</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.83166991236611498</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.16405118300338001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1000</v>
+      </c>
+      <c r="D68">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>0.01</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.78887077941644601</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.81537037037036997</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.84050514499532303</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.170141017780503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>0.1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.80831208204802096</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.80851851851851897</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.841959334565619</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.17119901112484501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>1000</v>
+      </c>
+      <c r="D72">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D73">
         <v>0.1</v>
       </c>
     </row>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\Research-Projects\ForegroundJobScheduler\results\Nonoverlapping windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431AFF5F-135F-4BF7-8AC6-518F5C20B178}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A73946-56CF-47E6-B482-E1571D063132}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="864" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5808" yWindow="1332" windowWidth="23040" windowHeight="12264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,12 +659,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D17">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -677,13 +677,37 @@
       <c r="D18">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>0.34125412452521198</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.99339393939393905</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.97816593886462899</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.5998459958932201E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>0.45637949975270797</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.98521212121212098</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.98520866349709502</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.78585609639214E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1000</v>
       </c>
@@ -691,12 +715,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>36</v>
       </c>
@@ -706,13 +730,37 @@
       <c r="D22">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="1">
+        <v>0.24690898163650299</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.96574074074074101</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.96129032258064495</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.9079497907949801E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="1">
+        <v>0.31309166611071998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.937037037037037</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.96787148594377503</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.9873200085966001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>1000</v>
       </c>
@@ -720,12 +768,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -738,13 +786,37 @@
       <c r="D26">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="1">
+        <v>0.37445818033377098</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.99503030303030304</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.97816593886462899</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.5998459958932201E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="1">
+        <v>0.47163032684068501</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.991575757575758</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.98520866349709502</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.78585609639214E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>1000</v>
       </c>
@@ -752,12 +824,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>36</v>
       </c>
@@ -767,13 +839,37 @@
       <c r="D30">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="1">
+        <v>0.22913072404079801</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.99055555555555597</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.96129032258064495</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.9079497907949801E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="1">
+        <v>0.29378073454491199</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.97555555555555595</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.96787148594377503</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.9873200085966001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>1000</v>
       </c>
